--- a/Aluguel/recalls.xlsx
+++ b/Aluguel/recalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="99">
   <si>
     <t>str_fundo</t>
   </si>
@@ -28,58 +28,289 @@
     <t>str_estrategia</t>
   </si>
   <si>
-    <t>dvd</t>
-  </si>
-  <si>
     <t>PendRecallD1</t>
   </si>
   <si>
     <t>PendRecallD2</t>
   </si>
   <si>
+    <t>PendRecallD3</t>
+  </si>
+  <si>
+    <t>KAPITALO K10 MASTER FIM</t>
+  </si>
+  <si>
+    <t>KAPITALO K10 PREV II MASTER FIM</t>
+  </si>
+  <si>
+    <t>KAPITALO K10 PREV MASTER FIM</t>
+  </si>
+  <si>
     <t>KAPITALO KAPPA MASTER FIM</t>
   </si>
   <si>
+    <t>KAPITALO KAPPA PREV II MASTER FIM</t>
+  </si>
+  <si>
+    <t>KAPITALO KAPPA PREV MASTER FIM</t>
+  </si>
+  <si>
+    <t>KAPITALO OMEGA PREV MASTER FIM</t>
+  </si>
+  <si>
+    <t>KAPITALO SIGMA LLC</t>
+  </si>
+  <si>
     <t>KAPITALO ZETA MASTER FIA</t>
   </si>
   <si>
     <t>KAPITALO ZETA MASTER FIM</t>
   </si>
   <si>
-    <t>ANIM3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>AAPL34</t>
+  </si>
+  <si>
+    <t>AMZO34</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>GOGL34</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
+    <t>AMBP3</t>
+  </si>
+  <si>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>BHIA3</t>
+  </si>
+  <si>
+    <t>CSNA3</t>
+  </si>
+  <si>
+    <t>EZTC3</t>
   </si>
   <si>
     <t>LWSA3</t>
   </si>
   <si>
+    <t>M1TA34</t>
+  </si>
+  <si>
     <t>MELI34</t>
   </si>
   <si>
+    <t>OIBR3</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t>QUAL3</t>
+  </si>
+  <si>
+    <t>RCSL3</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>SOMA3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>AESB3</t>
+  </si>
+  <si>
+    <t>ALPA4</t>
+  </si>
+  <si>
+    <t>AMER3</t>
+  </si>
+  <si>
+    <t>AURE3</t>
+  </si>
+  <si>
+    <t>BBDC4</t>
+  </si>
+  <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>BOVA11</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>CBAV3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
     <t>DXCO3</t>
   </si>
   <si>
+    <t>GGBR4</t>
+  </si>
+  <si>
+    <t>IFCM3</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>INBR32</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>IVVB11</t>
+  </si>
+  <si>
+    <t>JHSF3</t>
+  </si>
+  <si>
+    <t>LREN3</t>
+  </si>
+  <si>
+    <t>MOVI3</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>PCAR3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>RECV3</t>
+  </si>
+  <si>
+    <t>SMAL11</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
+  </si>
+  <si>
+    <t>TAEE11</t>
+  </si>
+  <si>
+    <t>TRPL4</t>
+  </si>
+  <si>
+    <t>TSLA34</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>HAPV3</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>AGRO3</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>NVDC34</t>
+  </si>
+  <si>
+    <t>SLCE3</t>
+  </si>
+  <si>
+    <t>LOGG3</t>
+  </si>
+  <si>
+    <t>FESA4</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>SAPR11</t>
+  </si>
+  <si>
+    <t>ASAI3</t>
+  </si>
+  <si>
+    <t>SIMH3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
     <t>Kapitalo 11.1</t>
   </si>
   <si>
     <t>Kapitalo 1.0</t>
   </si>
   <si>
+    <t>Arbitragem Aluguel</t>
+  </si>
+  <si>
     <t>Bolsa 2</t>
   </si>
   <si>
+    <t>Box_3pontas</t>
+  </si>
+  <si>
+    <t>CashCarry5</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
     <t>CashCarry</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>Box_3pontas</t>
-  </si>
-  <si>
-    <t>Arbitragem Aluguel</t>
   </si>
 </sst>
 </file>
@@ -437,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,22 +705,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -497,22 +728,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>97125</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -523,22 +754,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>97125</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -549,22 +780,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>97125</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -575,25 +806,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-30999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -601,25 +832,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-30999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -627,25 +858,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-30999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -653,25 +884,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>-1527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -679,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1789</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -708,22 +939,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-14478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -734,22 +965,4676 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>-14478</v>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22">
+        <v>-46</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>-12658</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>-1613</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>-8310</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2147</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1713</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48">
+        <v>-464</v>
+      </c>
+      <c r="G48">
+        <v>-64</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49">
+        <v>-5993</v>
+      </c>
+      <c r="G49">
+        <v>-653</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>272</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>-2710</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>-2510</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75">
+        <v>-1810</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>2841</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>3656</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>3656</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" t="s">
+        <v>94</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" t="s">
+        <v>94</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" t="s">
+        <v>94</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88">
+        <v>-14910</v>
+      </c>
+      <c r="G88">
+        <v>-11810</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" t="s">
+        <v>94</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" t="s">
+        <v>93</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97" t="s">
+        <v>93</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" t="s">
+        <v>94</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" t="s">
+        <v>93</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>92</v>
+      </c>
+      <c r="E101" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" t="s">
+        <v>93</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" t="s">
+        <v>94</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104" t="s">
+        <v>94</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>-1038</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" t="s">
+        <v>94</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>-1038</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" t="s">
+        <v>94</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" t="s">
+        <v>91</v>
+      </c>
+      <c r="E110" t="s">
+        <v>94</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>-2010</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" t="s">
+        <v>91</v>
+      </c>
+      <c r="E111" t="s">
+        <v>93</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" t="s">
+        <v>91</v>
+      </c>
+      <c r="E112" t="s">
+        <v>93</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" t="s">
+        <v>91</v>
+      </c>
+      <c r="E113" t="s">
+        <v>94</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>-5666</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" t="s">
+        <v>91</v>
+      </c>
+      <c r="E114" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" t="s">
+        <v>92</v>
+      </c>
+      <c r="E115" t="s">
+        <v>94</v>
+      </c>
+      <c r="F115">
+        <v>-850</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>65</v>
+      </c>
+      <c r="D116" t="s">
+        <v>91</v>
+      </c>
+      <c r="E116" t="s">
+        <v>94</v>
+      </c>
+      <c r="F116">
+        <v>-850</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s">
+        <v>91</v>
+      </c>
+      <c r="E117" t="s">
+        <v>93</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" t="s">
+        <v>91</v>
+      </c>
+      <c r="E118" t="s">
+        <v>94</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" t="s">
+        <v>91</v>
+      </c>
+      <c r="E119" t="s">
+        <v>94</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>-1407</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>78</v>
+      </c>
+      <c r="D120" t="s">
+        <v>91</v>
+      </c>
+      <c r="E120" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" t="s">
+        <v>93</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>79</v>
+      </c>
+      <c r="D122" t="s">
+        <v>92</v>
+      </c>
+      <c r="E122" t="s">
+        <v>94</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>79</v>
+      </c>
+      <c r="D123" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" t="s">
+        <v>94</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" t="s">
+        <v>91</v>
+      </c>
+      <c r="E124" t="s">
+        <v>94</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>92</v>
+      </c>
+      <c r="E125" t="s">
+        <v>94</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>136</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>42</v>
+      </c>
+      <c r="D126" t="s">
+        <v>91</v>
+      </c>
+      <c r="E126" t="s">
+        <v>94</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>136</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>92</v>
+      </c>
+      <c r="E127" t="s">
+        <v>94</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" t="s">
+        <v>91</v>
+      </c>
+      <c r="E128" t="s">
+        <v>93</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
+        <v>91</v>
+      </c>
+      <c r="E129" t="s">
+        <v>94</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>80</v>
+      </c>
+      <c r="D130" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" t="s">
+        <v>94</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" t="s">
+        <v>91</v>
+      </c>
+      <c r="E131" t="s">
+        <v>94</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>91</v>
+      </c>
+      <c r="E132" t="s">
+        <v>94</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" t="s">
+        <v>91</v>
+      </c>
+      <c r="E133" t="s">
+        <v>93</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" t="s">
+        <v>91</v>
+      </c>
+      <c r="E134" t="s">
+        <v>93</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135" t="s">
+        <v>91</v>
+      </c>
+      <c r="E135" t="s">
+        <v>93</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>81</v>
+      </c>
+      <c r="D136" t="s">
+        <v>92</v>
+      </c>
+      <c r="E136" t="s">
+        <v>94</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>-571</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" t="s">
+        <v>94</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>82</v>
+      </c>
+      <c r="D138" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" t="s">
+        <v>94</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" t="s">
+        <v>93</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" t="s">
+        <v>94</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>-744</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141" t="s">
+        <v>91</v>
+      </c>
+      <c r="E141" t="s">
+        <v>94</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" t="s">
+        <v>93</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>83</v>
+      </c>
+      <c r="D143" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" t="s">
+        <v>94</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>37</v>
+      </c>
+      <c r="D144" t="s">
+        <v>92</v>
+      </c>
+      <c r="E144" t="s">
+        <v>94</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>37</v>
+      </c>
+      <c r="D145" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" t="s">
+        <v>94</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" t="s">
+        <v>92</v>
+      </c>
+      <c r="E146" t="s">
+        <v>94</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" t="s">
+        <v>91</v>
+      </c>
+      <c r="E147" t="s">
+        <v>94</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>45</v>
+      </c>
+      <c r="D148" t="s">
+        <v>91</v>
+      </c>
+      <c r="E148" t="s">
+        <v>94</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>46</v>
+      </c>
+      <c r="D149" t="s">
+        <v>91</v>
+      </c>
+      <c r="E149" t="s">
+        <v>94</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>75</v>
+      </c>
+      <c r="D150" t="s">
+        <v>92</v>
+      </c>
+      <c r="E150" t="s">
+        <v>94</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
+        <v>48</v>
+      </c>
+      <c r="D151" t="s">
+        <v>92</v>
+      </c>
+      <c r="E151" t="s">
+        <v>94</v>
+      </c>
+      <c r="F151">
+        <v>-60</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" t="s">
+        <v>91</v>
+      </c>
+      <c r="E152" t="s">
+        <v>94</v>
+      </c>
+      <c r="F152">
+        <v>-60</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>91</v>
+      </c>
+      <c r="E153" t="s">
+        <v>94</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" t="s">
+        <v>84</v>
+      </c>
+      <c r="D154" t="s">
+        <v>91</v>
+      </c>
+      <c r="E154" t="s">
+        <v>94</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" t="s">
+        <v>91</v>
+      </c>
+      <c r="E155" t="s">
+        <v>94</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>-125</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>91</v>
+      </c>
+      <c r="E156" t="s">
+        <v>94</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" t="s">
+        <v>91</v>
+      </c>
+      <c r="E157" t="s">
+        <v>94</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158" t="s">
+        <v>92</v>
+      </c>
+      <c r="E158" t="s">
+        <v>94</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" t="s">
+        <v>37</v>
+      </c>
+      <c r="D159" t="s">
+        <v>91</v>
+      </c>
+      <c r="E159" t="s">
+        <v>94</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" t="s">
+        <v>91</v>
+      </c>
+      <c r="E160" t="s">
+        <v>94</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>42</v>
+      </c>
+      <c r="D161" t="s">
+        <v>91</v>
+      </c>
+      <c r="E161" t="s">
+        <v>94</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>195</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>75</v>
+      </c>
+      <c r="D162" t="s">
+        <v>92</v>
+      </c>
+      <c r="E162" t="s">
+        <v>94</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" t="s">
+        <v>48</v>
+      </c>
+      <c r="D163" t="s">
+        <v>92</v>
+      </c>
+      <c r="E163" t="s">
+        <v>94</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>48</v>
+      </c>
+      <c r="D164" t="s">
+        <v>91</v>
+      </c>
+      <c r="E164" t="s">
+        <v>94</v>
+      </c>
+      <c r="F164">
+        <v>-1160</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" t="s">
+        <v>49</v>
+      </c>
+      <c r="D165" t="s">
+        <v>91</v>
+      </c>
+      <c r="E165" t="s">
+        <v>94</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" t="s">
+        <v>85</v>
+      </c>
+      <c r="D166" t="s">
+        <v>91</v>
+      </c>
+      <c r="E166" t="s">
+        <v>94</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" t="s">
+        <v>52</v>
+      </c>
+      <c r="D167" t="s">
+        <v>91</v>
+      </c>
+      <c r="E167" t="s">
+        <v>94</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" t="s">
+        <v>86</v>
+      </c>
+      <c r="D168" t="s">
+        <v>91</v>
+      </c>
+      <c r="E168" t="s">
+        <v>94</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" t="s">
+        <v>84</v>
+      </c>
+      <c r="D169" t="s">
+        <v>91</v>
+      </c>
+      <c r="E169" t="s">
+        <v>94</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170" t="s">
+        <v>91</v>
+      </c>
+      <c r="E170" t="s">
+        <v>94</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>91</v>
+      </c>
+      <c r="E171" t="s">
+        <v>94</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" t="s">
+        <v>87</v>
+      </c>
+      <c r="D172" t="s">
+        <v>91</v>
+      </c>
+      <c r="E172" t="s">
+        <v>94</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>40</v>
+      </c>
+      <c r="D173" t="s">
+        <v>92</v>
+      </c>
+      <c r="E173" t="s">
+        <v>94</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" t="s">
+        <v>88</v>
+      </c>
+      <c r="D174" t="s">
+        <v>91</v>
+      </c>
+      <c r="E174" t="s">
+        <v>94</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" t="s">
+        <v>91</v>
+      </c>
+      <c r="E175" t="s">
+        <v>94</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>22000</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" t="s">
+        <v>92</v>
+      </c>
+      <c r="E176" t="s">
+        <v>94</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>-610</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
+        <v>75</v>
+      </c>
+      <c r="D177" t="s">
+        <v>92</v>
+      </c>
+      <c r="E177" t="s">
+        <v>94</v>
+      </c>
+      <c r="F177">
+        <v>-13</v>
+      </c>
+      <c r="G177">
+        <v>-13</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>48</v>
+      </c>
+      <c r="D178" t="s">
+        <v>92</v>
+      </c>
+      <c r="E178" t="s">
+        <v>94</v>
+      </c>
+      <c r="F178">
+        <v>-2995</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" t="s">
+        <v>48</v>
+      </c>
+      <c r="D179" t="s">
+        <v>91</v>
+      </c>
+      <c r="E179" t="s">
+        <v>94</v>
+      </c>
+      <c r="F179">
+        <v>-8603</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" t="s">
+        <v>52</v>
+      </c>
+      <c r="D180" t="s">
+        <v>91</v>
+      </c>
+      <c r="E180" t="s">
+        <v>94</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
+        <v>76</v>
+      </c>
+      <c r="D181" t="s">
+        <v>91</v>
+      </c>
+      <c r="E181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
+        <v>81</v>
+      </c>
+      <c r="D182" t="s">
+        <v>92</v>
+      </c>
+      <c r="E182" t="s">
+        <v>94</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
+        <v>81</v>
+      </c>
+      <c r="D183" t="s">
+        <v>91</v>
+      </c>
+      <c r="E183" t="s">
+        <v>94</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
+        <v>61</v>
+      </c>
+      <c r="D184" t="s">
+        <v>92</v>
+      </c>
+      <c r="E184" t="s">
+        <v>94</v>
+      </c>
+      <c r="F184">
+        <v>-11</v>
+      </c>
+      <c r="G184">
+        <v>-521</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>61</v>
+      </c>
+      <c r="D185" t="s">
+        <v>91</v>
+      </c>
+      <c r="E185" t="s">
+        <v>94</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>91</v>
+      </c>
+      <c r="E186" t="s">
+        <v>94</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
+        <v>65</v>
+      </c>
+      <c r="D187" t="s">
+        <v>91</v>
+      </c>
+      <c r="E187" t="s">
+        <v>94</v>
+      </c>
+      <c r="F187">
+        <v>-38</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" t="s">
+        <v>34</v>
+      </c>
+      <c r="D188" t="s">
+        <v>91</v>
+      </c>
+      <c r="E188" t="s">
+        <v>94</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" t="s">
+        <v>89</v>
+      </c>
+      <c r="D189" t="s">
+        <v>92</v>
+      </c>
+      <c r="E189" t="s">
+        <v>94</v>
+      </c>
+      <c r="F189">
+        <v>-7010</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
+        <v>70</v>
+      </c>
+      <c r="D190" t="s">
+        <v>91</v>
+      </c>
+      <c r="E190" t="s">
+        <v>94</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" t="s">
+        <v>90</v>
+      </c>
+      <c r="D191" t="s">
+        <v>91</v>
+      </c>
+      <c r="E191" t="s">
+        <v>94</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
